--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CE/15/seed1/result_data_RandomForest.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.0532</v>
+        <v>-12.0217</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.1233</v>
+        <v>-12.5004</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,13 +553,13 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.147</v>
+        <v>-13.0619</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>15.6097</v>
+        <v>15.4434</v>
       </c>
     </row>
     <row r="8">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.6395</v>
+        <v>17.7704</v>
       </c>
     </row>
     <row r="13">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.3828</v>
+        <v>16.1936</v>
       </c>
     </row>
     <row r="16">
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-14.49869999999999</v>
+        <v>-14.16759999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -774,13 +774,13 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.28839999999999</v>
+        <v>-12.2452</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>15.89699999999999</v>
+        <v>15.93779999999999</v>
       </c>
     </row>
     <row r="21">
@@ -797,7 +797,7 @@
         <v>-6.74</v>
       </c>
       <c r="E21" t="n">
-        <v>17.1027</v>
+        <v>17.0743</v>
       </c>
     </row>
     <row r="22">
@@ -814,7 +814,7 @@
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>17.15939999999999</v>
+        <v>17.0818</v>
       </c>
     </row>
     <row r="23">
@@ -831,7 +831,7 @@
         <v>-8.59</v>
       </c>
       <c r="E23" t="n">
-        <v>16.11949999999999</v>
+        <v>16.09779999999999</v>
       </c>
     </row>
     <row r="24">
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.7888</v>
+        <v>-12.4651</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,13 +927,13 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.49100000000001</v>
+        <v>-11.6166</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.37120000000001</v>
+        <v>17.48030000000001</v>
       </c>
     </row>
     <row r="30">
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-12.8258</v>
+        <v>-13.21010000000001</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1018,7 +1018,7 @@
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.18330000000001</v>
+        <v>17.2696</v>
       </c>
     </row>
     <row r="35">
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.2392</v>
+        <v>-12.45890000000001</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.417</v>
+        <v>16.36749999999999</v>
       </c>
     </row>
     <row r="43">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.45850000000001</v>
+        <v>17.4541</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.79419999999999</v>
+        <v>16.72739999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>16.50249999999999</v>
+        <v>16.50729999999999</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.66779999999999</v>
+        <v>-14.64559999999999</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.62220000000001</v>
+        <v>16.69620000000001</v>
       </c>
     </row>
     <row r="47">
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.4517</v>
+        <v>16.5179</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.6706</v>
+        <v>-11.4333</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>17.2769</v>
+        <v>17.31150000000001</v>
       </c>
     </row>
     <row r="52">
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.2854</v>
+        <v>-11.3895</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.01609999999999</v>
+        <v>-14.23249999999998</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.87199999999999</v>
+        <v>-13.0027</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.778</v>
+        <v>-14.7757</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1556,13 +1556,13 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.1146</v>
+        <v>-11.2262</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.1031</v>
+        <v>17.17980000000001</v>
       </c>
     </row>
     <row r="67">
@@ -1579,7 +1579,7 @@
         <v>-6.43</v>
       </c>
       <c r="E67" t="n">
-        <v>17.14400000000002</v>
+        <v>17.05070000000002</v>
       </c>
     </row>
     <row r="68">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.73660000000001</v>
+        <v>-11.989</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.61000000000001</v>
+        <v>-11.8283</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.18840000000001</v>
+        <v>18.12970000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.3698</v>
+        <v>16.5435</v>
       </c>
     </row>
     <row r="85">
@@ -1998,13 +1998,13 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.4932</v>
+        <v>-10.5381</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.29750000000001</v>
+        <v>18.06390000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.5313</v>
+        <v>16.37249999999999</v>
       </c>
     </row>
     <row r="98">
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.76539999999999</v>
+        <v>-12.5844</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
